--- a/Literature/Literaturrecherche.xlsx
+++ b/Literature/Literaturrecherche.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://sap-my.sharepoint.com/personal/max_darmstadt_sap_com/Documents/Masterarbeit/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\D073496\Documents\GitHub\master_thesis\Literature\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1" documentId="8_{27915097-C093-42C7-AA1F-92CCB2E1CC0D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{81982AAE-C6DF-42BD-A11F-18672C3DB265}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{80125B2C-0636-4115-835F-4D99A376FFC9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{9536B4DD-D776-4421-A461-AABB2DA089CF}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="20">
   <si>
     <t>Number</t>
   </si>
@@ -93,6 +93,9 @@
   </si>
   <si>
     <t>Max test</t>
+  </si>
+  <si>
+    <t>Test2</t>
   </si>
 </sst>
 </file>
@@ -450,7 +453,7 @@
   <dimension ref="A1:R2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F6" sqref="F6"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -515,6 +518,9 @@
       <c r="A2" t="s">
         <v>18</v>
       </c>
+      <c r="B2" t="s">
+        <v>19</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
